--- a/Amplification_Ratios_by_2 years Period (ChatGPT).xlsx
+++ b/Amplification_Ratios_by_2 years Period (ChatGPT).xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982F8799-2717-4347-9010-4CC1647AC0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5E304-A36C-F54C-A82D-0D7B8DD2065D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SARIMA" sheetId="2" r:id="rId1"/>
     <sheet name="Prophet" sheetId="4" r:id="rId2"/>
     <sheet name="Original" sheetId="5" r:id="rId3"/>
     <sheet name="DNN" sheetId="3" r:id="rId4"/>
+    <sheet name="Stage" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="99">
   <si>
     <t>Apparel</t>
   </si>
@@ -319,6 +320,21 @@
   <si>
     <t>Period</t>
   </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Retailer</t>
+  </si>
+  <si>
+    <t>Wholesaler</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
 </sst>
 </file>
 
@@ -405,7 +421,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -717,7 +733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C644C1F5-9F1F-ED41-8ACD-2E0904473FC2}">
   <dimension ref="A1:BZ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16824,4 +16842,647 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA71295F-1F5D-044F-8AB4-5B3FC9DDA4E9}">
+  <dimension ref="A1:B78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Amplification_Ratios_by_2 years Period (ChatGPT).xlsx
+++ b/Amplification_Ratios_by_2 years Period (ChatGPT).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5E304-A36C-F54C-A82D-0D7B8DD2065D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA46A7-DF29-204E-9E01-81C137FD6F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="760" windowWidth="26380" windowHeight="18880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SARIMA" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Original" sheetId="5" r:id="rId3"/>
     <sheet name="DNN" sheetId="3" r:id="rId4"/>
     <sheet name="Stage" sheetId="6" r:id="rId5"/>
+    <sheet name="Mapping" sheetId="7" r:id="rId6"/>
+    <sheet name="Sankey DNN" sheetId="8" r:id="rId7"/>
+    <sheet name="Sankey Original" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="152">
   <si>
     <t>Apparel</t>
   </si>
@@ -335,6 +338,165 @@
   <si>
     <t>Stage</t>
   </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>15S</t>
+  </si>
+  <si>
+    <t>34F</t>
+  </si>
+  <si>
+    <t>36A</t>
+  </si>
+  <si>
+    <t>35D</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>34E</t>
+  </si>
+  <si>
+    <t>34D</t>
+  </si>
+  <si>
+    <t>34B</t>
+  </si>
+  <si>
+    <t>33C</t>
+  </si>
+  <si>
+    <t>11B</t>
+  </si>
+  <si>
+    <t>35A</t>
+  </si>
+  <si>
+    <t>35C</t>
+  </si>
+  <si>
+    <t>34K</t>
+  </si>
+  <si>
+    <t>34A</t>
+  </si>
+  <si>
+    <t>32S</t>
+  </si>
+  <si>
+    <t>33A</t>
+  </si>
+  <si>
+    <t>31C</t>
+  </si>
+  <si>
+    <t>37S</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>36C</t>
+  </si>
+  <si>
+    <t>35B</t>
+  </si>
+  <si>
+    <t>33E</t>
+  </si>
+  <si>
+    <t>31A</t>
+  </si>
+  <si>
+    <t>16S</t>
+  </si>
+  <si>
+    <t>36B</t>
+  </si>
+  <si>
+    <t>33M</t>
+  </si>
+  <si>
+    <t>11C</t>
+  </si>
+  <si>
+    <t>33I</t>
+  </si>
+  <si>
+    <t>33D</t>
+  </si>
+  <si>
+    <t>39S</t>
+  </si>
+  <si>
+    <t>27S</t>
+  </si>
+  <si>
+    <t>34C</t>
+  </si>
+  <si>
+    <t>34H</t>
+  </si>
+  <si>
+    <t>25C</t>
+  </si>
+  <si>
+    <t>22B</t>
+  </si>
+  <si>
+    <t>25A</t>
+  </si>
+  <si>
+    <t>24S</t>
+  </si>
+  <si>
+    <t>25B</t>
+  </si>
+  <si>
+    <t>33G</t>
+  </si>
+  <si>
+    <t>26S</t>
+  </si>
+  <si>
+    <t>23S</t>
+  </si>
+  <si>
+    <t>22A</t>
+  </si>
+  <si>
+    <t>34J</t>
+  </si>
+  <si>
+    <t>34I</t>
+  </si>
+  <si>
+    <t>13S</t>
+  </si>
+  <si>
+    <t>14S</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>MTM</t>
+  </si>
+  <si>
+    <t>36S</t>
+  </si>
+  <si>
+    <t>33H</t>
+  </si>
+  <si>
+    <t>21S</t>
+  </si>
+  <si>
+    <t>4423X</t>
+  </si>
 </sst>
 </file>
 
@@ -415,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -427,6 +589,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8791,7 +8965,7 @@
   <dimension ref="A1:BZ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A15" activeCellId="2" sqref="A1:XFD1 A16:XFD17 A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12821,7 +12995,7 @@
   <dimension ref="A1:BZ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCellId="1" sqref="A15:XFD17 A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16848,7 +17022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA71295F-1F5D-044F-8AB4-5B3FC9DDA4E9}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -17485,4 +17659,2863 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67932673-FC9C-734C-B55A-F7CE98ABD285}">
+  <dimension ref="A1:B78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="7">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="7">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="7">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="7">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="7">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="7">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="7">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="7">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="7">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="7">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="7">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="7">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="7">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="7">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="7">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="7">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="7">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="7">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="7">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="7">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" s="7">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="7">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="7">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="7">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C91F64-B27B-F947-854E-517E3C4823A1}">
+  <dimension ref="A1:D78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="66.6640625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>13.025644142095389</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10.208839586303849</v>
+      </c>
+      <c r="D2" s="2">
+        <v>11.31319059544229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.80936671126280257</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.077938801905383</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.7103667505101561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.901240640796612</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.599061444192015</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.760132743552365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.89617150461445361</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.93757032498978832</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.97158566046265793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.223703467012105</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.1112907609735729</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.8358272758269112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.0003274307445209</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.1788232581953539</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.029373592139877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.871453805222639</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.9944582071502577</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.7514418585727101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.74382265662847491</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.76616679338009386</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.83484690041843745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.113339691327359</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.0055638301651559</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.4198590852249979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.1707294520621669</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.1840011688871681</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.94796680397138833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.540877572146317</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.811227503646792</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.882486625152098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.0792878713980241</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.89289010332882757</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.99949592319881686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.468267617788104</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.54308436930075887</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.22174551931606651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.7651138546057821</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.7688365838613891</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.099404053699607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.280519761156979</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.3090538327413399</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.4587376269155508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.698159653236069</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.576422884593097</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.1354810628648071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.0704988145789209</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.3159871625471491</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.50891905861968534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.71674231468071203</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.67286659521958248</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.79435980021479979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.7979224543003931</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.638900806827388</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.5639948162177979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.95043801949559714</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.596723117472828</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.719235236462086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.99974192266363937</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.323008668878928</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.698790511217972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.020093212538103</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.4177132352300279</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2.0333851384956101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4.9542153214764841</v>
+      </c>
+      <c r="C24" s="2">
+        <v>11.72885496945463</v>
+      </c>
+      <c r="D24" s="2">
+        <v>12.276438780875941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.106878140752769</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.154084963944743</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.1054110772116861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.0885121015717041</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.0166981821116781</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.1520932215663791</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3.8981798982253508</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.721940126212254</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2.1328423096826219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.5944333267859299</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.6517794482367929</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.5765755628856419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.551587605613818</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.373121977205062</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.7646069435017859</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.70764590003707561</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.73125082551292675</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.64408415669048613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5.1059009183804474</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.979639556845262</v>
+      </c>
+      <c r="D31" s="2">
+        <v>7.985507225873727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.27929310193472</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.196775351879525</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.2228507063458269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.3454124047312159</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.1254394734102751</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.6218713495403581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.1003805156738209</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.235374397055965</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.0494896411122749</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.0421368558352511</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.1388696452819429</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.88653571412433163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.73442545721724239</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.2591438351771229</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.022464229153961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.9286434773361749</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2.5704429453961239</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3.8724473769947898</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.0985848372337319</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.8099257519799949</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.6573884797507381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3.6519399763332738</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5.4086399596251296</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.973865034577037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.039135081666775</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.93895652291939791</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.092919611021689</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.0344340081511469</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.347080329192077</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.562431051334634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.72501259867482359</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.0990570903485379</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.89506690364543273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2.7395749146738431</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2.6654971361325548</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.5549596029943951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3.3460736666752489</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.7102883523661641</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2.3460089860763209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.3994400213395559</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.444498324828819</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2.2624815554503361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.6427061960964471</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.792879732815218</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.217963548234468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>18.38133476986204</v>
+      </c>
+      <c r="C47" s="2">
+        <v>36.289622856793883</v>
+      </c>
+      <c r="D47" s="2">
+        <v>105.0582390209775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.5002787181845649</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1.1960747281847279</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.164829003528234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.4996566896552867</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.66796359542470385</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.67295603540424143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.40873695050085962</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.2487989343175977</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.53120748864689338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1.9283920678324999</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3.542967689295113</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.94332459200337127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.74343150126636981</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.0752939356920539</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.752360859505312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1.021091947521678</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.1252867180815109</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1.015133273881472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.72240548974692165</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.61124197255034807</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.92872640671807838</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1.1753184381645221</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2.0477362229364622</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2.11597626062794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1.1437762262228051</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1.3079082479978099</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.3121161828090799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1.0399863446265769</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.037633058287893</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.366600077805467</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1.021813057813088</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1.487774100564464</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.3503432852215129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1.249783061231053</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1.46338224850374</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.139142139231939</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1.7191243642767899</v>
+      </c>
+      <c r="C60" s="2">
+        <v>6.7343065020018908</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3.5533257093973591</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2.2145896893250372</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5.2079262580091843</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3.3295404249429681</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>3.401743952656016</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3.859711646204405</v>
+      </c>
+      <c r="D62" s="2">
+        <v>4.260780485500681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2.4700754296766578</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1.335278548229101</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.6998148831949389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1.368130909428249</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1.652703664405476</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.277773884908378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1.1936089015264939</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1.3964490338749549</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.5070713933739219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.9092262709835468</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.95531107527809356</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.0332783951291169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1.513765788043663</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1.385046824822433</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.260595836543946</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.91188864240060818</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.92850351842275636</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.96864428521550339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.92502494570839466</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1.0480074628767959</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.98306640396312461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1.9217254297018209</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1.6656870919969899</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1.918286137606191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1.233703706491253</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1.0340945838477229</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.236005753638596</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2.7444329080726559</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1.447943718091449</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1.8798824835219821</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1.53307185423718</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2.1672247108663512</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1.410331434611382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.96309221884292806</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1.0162228989446429</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1.197022172034232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1.09752809473049</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1.332570098884061</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1.2281132742908669</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1.303845831329459</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1.4053508837032189</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1.424184856828371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1.4485325528128199</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1.3958061113093381</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1.0886101234646901</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1.1580494195002691</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1.519205282305095</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.4401279322411711</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AE697F-1F52-C74D-B5A9-0DA44CECDBA3}">
+  <dimension ref="A1:D78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="66.6640625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.2550057248835111</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.950464672664606</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.3957397363336699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.87921381734729431</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.58625509871376558</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.75006403856361292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.7205866777899539</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.78508281640560262</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.8350950196576019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.75156981657610522</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.1406804247922431</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.81457111235144009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.7702838487488091</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.1301856210924797</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.953342221870638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.37320214626453208</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.54365017610107202</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.45505208734963698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.108942705125048</v>
+      </c>
+      <c r="C8" s="2">
+        <v>17.068637689965289</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.8160989402626408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.1182312108515791</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.67541190753145031</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.92753680818116291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.81697593895175924</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.85395954167677801</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.379668709063878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.31099810987572551</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.035469814035429</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.30714114217182781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.6639179854219099</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.920567366390441</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.3477318283611028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.16846681979746489</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.28010935168408202</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.38367309814503409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.2652185537001679</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.50901360209082147</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.46905941557090752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.91062950793671182</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.7251097739026799</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.2729556320572819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.101609707179261</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3.0999705344606441</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.92391887541526962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.0060478003199571</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.7656167316291329</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.942194886109359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.9217513778394881</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.8033988108429739</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.1171854473599661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.0782072636004729</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.67287898252205991</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.29574590193605271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.21286413682093849</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.31334097075078582</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.3436859843225365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.554632411190668</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.8073005328627281</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4.3430824435870292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.0350184238277711</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.80907102328031844</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.64850058082449369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.73501902717320733</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.842291362351457</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.87331811628676914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4.7848477327332191</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15.23138799697751</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5.6260912937386127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.1582407649569668</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.4367019758889159</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.5794109743973399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.098360176472551</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.81564110680266821</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.98846888039397118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.928809140657705</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.4081148784237181</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.2875321027941899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.9688458593381351</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.214539650330964</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.3612670632507851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.78812678306545592</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.3024626645749351</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.233401284158216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.2978247730393706</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.36364357854243862</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.2926677204130721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.8231693714398789</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.620505174958371</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.8428020067760871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.122043992195598</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.3811003993646529</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.178651932158906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.94389608309049822</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.2669214972919709</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.607994575174156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.4192445042474491</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.72500094151064909</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.6959079877131169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.0680413708566781</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.52451880422047026</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.35667579876301231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.97329585836555277</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.0433242386492629</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.97012323464434413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2.8223549481602039</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6.8872458196733328</v>
+      </c>
+      <c r="D37" s="2">
+        <v>15.83415700463936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.72551223248727148</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3.9603282465562679</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2.5952917879822381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.035387739962865</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.3204907395270269</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.646479042884323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.67884938099905601</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.429603140956923</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.53569959044238269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.2034333874659671</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3.0170825807967572</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2.337028449893265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.71615164428903255</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.62087416717318922</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.84927469834480585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>6.6396385271179854</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2.0956130158192949</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.818072075335057</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.92200653535275445</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2.4297165371139928</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.77879287638826178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.8712059995234549</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.76441637880897051</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.0966088667857921</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.49309203623535369</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.53297756377115169</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.073993829672464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2.0244035322295679</v>
+      </c>
+      <c r="C47" s="2">
+        <v>15.505840964083809</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3.167010502020553</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.1784512290494391</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1.031747492055787</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.9274501313077419</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.80006812435290564</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1.3343118098072819</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.3924534020173489</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.28213077842145617</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.28460193364603792</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.18783760275991629</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1.04545845783548</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1.8060516410493079</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.14436515915739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.69984110388475018</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2.2868379695515619</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.672662861260817</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.69478615779142583</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.71652921250844692</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.6965386856720418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.32793758826250857</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.43295840547547892</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.4481138035186587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3.5169351846430539</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4.6563362310076721</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3.057617669636048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1.070591716581055</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1.236925375693338</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.89314921088702703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1.122527130878378</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.172083967016351</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.1838872113545471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.65230312497371479</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1.2154111890827219</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.79852051309940375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.74194041599602445</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.59152684883180551</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.74584665320837695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1.8509020532791089</v>
+      </c>
+      <c r="C60" s="2">
+        <v>7.352456000633051</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2.5007469644109732</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2.1202324164452921</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4.9288538928730992</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.8938449775360571</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>10.64914682150715</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2.729748209467088</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5.0930719160825992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.44224579082036392</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.55348192398524931</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.26518103737401338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1.174211000608574</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.94558377902517321</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.1659703727423469</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1.199332072930883</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1.738607571466152</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.131830878052501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.86705457954117238</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.9346247551190916</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.74064370723953632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.96442696955500362</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.97619796227170608</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.99823942819160838</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.57942488920512758</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.73136858410418493</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.77213131655056799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.28164160970990032</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.21553346909167961</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.35942032766670468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.55207673151703329</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.51634335486992233</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.56742028962310309</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.78268148488677891</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.86722397716099175</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.63082410467953387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1.5166825709794249</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1.5557323944762871</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1.408924953689235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2.2235369580948121</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1.8521274127032259</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1.3526944183017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.57430336643750557</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.7182132002982744</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.55025400935294666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.98455192365704314</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1.228820679646788</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1.3208338347210991</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.27863160067350379</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.80952937716806161</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.48785384269975779</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.68870839831659458</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.62432148359565787</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.96988567151753591</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1.676051575723938</v>
+      </c>
+      <c r="C78" s="2">
+        <v>3.2705793147654392</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2.562589200855458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Amplification_Ratios_by_2 years Period (ChatGPT).xlsx
+++ b/Amplification_Ratios_by_2 years Period (ChatGPT).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Library/Mobile Documents/com~apple~CloudDocs/PhD Thesis/1 Tez Önerisi/1 Çalışmalar/Time series runs 26.3.24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA46A7-DF29-204E-9E01-81C137FD6F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B5FAA5-025C-D447-9443-C64AFE7DF2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="760" windowWidth="26380" windowHeight="18880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -602,6 +602,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18305,7 +18313,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="B2" sqref="B2:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18331,1078 +18339,1078 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>13.025644142095389</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10.208839586303849</v>
-      </c>
-      <c r="D2" s="2">
-        <v>11.31319059544229</v>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.80936671126280257</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.077938801905383</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.7103667505101561</v>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>1.901240640796612</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.599061444192015</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.760132743552365</v>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.89617150461445361</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.93757032498978832</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.97158566046265793</v>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>1.223703467012105</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.1112907609735729</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.8358272758269112</v>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>1.0003274307445209</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.1788232581953539</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.029373592139877</v>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>2.871453805222639</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6.9944582071502577</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.7514418585727101</v>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.74382265662847491</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.76616679338009386</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.83484690041843745</v>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>1.113339691327359</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.0055638301651559</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.4198590852249979</v>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>1.1707294520621669</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.1840011688871681</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.94796680397138833</v>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>3.540877572146317</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2.811227503646792</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.882486625152098</v>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>1.0792878713980241</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.89289010332882757</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.99949592319881686</v>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.468267617788104</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.54308436930075887</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.22174551931606651</v>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>1.7651138546057821</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.7688365838613891</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.099404053699607</v>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>1.280519761156979</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2.3090538327413399</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4.4587376269155508</v>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>1.698159653236069</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.576422884593097</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2.1354810628648071</v>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>1.0704988145789209</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.3159871625471491</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.50891905861968534</v>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.71674231468071203</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.67286659521958248</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.79435980021479979</v>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>1.7979224543003931</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.638900806827388</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.5639948162177979</v>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.95043801949559714</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.596723117472828</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.719235236462086</v>
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.99974192266363937</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.323008668878928</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.698790511217972</v>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>1.020093212538103</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.4177132352300279</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2.0333851384956101</v>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
-        <v>4.9542153214764841</v>
-      </c>
-      <c r="C24" s="2">
-        <v>11.72885496945463</v>
-      </c>
-      <c r="D24" s="2">
-        <v>12.276438780875941</v>
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>1.106878140752769</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1.154084963944743</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.1054110772116861</v>
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <v>1.0885121015717041</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1.0166981821116781</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.1520932215663791</v>
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>3.8981798982253508</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1.721940126212254</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2.1328423096826219</v>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>2.5944333267859299</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.6517794482367929</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.5765755628856419</v>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <v>1.551587605613818</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1.373121977205062</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1.7646069435017859</v>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
-        <v>0.70764590003707561</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.73125082551292675</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.64408415669048613</v>
+      <c r="B30" s="10">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
-        <v>5.1059009183804474</v>
-      </c>
-      <c r="C31" s="2">
-        <v>3.979639556845262</v>
-      </c>
-      <c r="D31" s="2">
-        <v>7.985507225873727</v>
+      <c r="B31" s="10">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
-        <v>1.27929310193472</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1.196775351879525</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.2228507063458269</v>
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
-        <v>1.3454124047312159</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1.1254394734102751</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1.6218713495403581</v>
+      <c r="B33" s="10">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
-        <v>1.1003805156738209</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1.235374397055965</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1.0494896411122749</v>
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
-        <v>1.0421368558352511</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1.1388696452819429</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.88653571412433163</v>
+      <c r="B35" s="10">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
-        <v>0.73442545721724239</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1.2591438351771229</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1.022464229153961</v>
+      <c r="B36" s="10">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>1.9286434773361749</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2.5704429453961239</v>
-      </c>
-      <c r="D37" s="2">
-        <v>3.8724473769947898</v>
+      <c r="B37" s="10">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
-        <v>1.0985848372337319</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1.8099257519799949</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1.6573884797507381</v>
+      <c r="B38" s="10">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
-        <v>3.6519399763332738</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5.4086399596251296</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1.973865034577037</v>
+      <c r="B39" s="10">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
-        <v>1.039135081666775</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.93895652291939791</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1.092919611021689</v>
+      <c r="B40" s="10">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
-        <v>1.0344340081511469</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1.347080329192077</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1.562431051334634</v>
+      <c r="B41" s="10">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
-        <v>0.72501259867482359</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1.0990570903485379</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.89506690364543273</v>
+      <c r="B42" s="10">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
-        <v>2.7395749146738431</v>
-      </c>
-      <c r="C43" s="2">
-        <v>2.6654971361325548</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1.5549596029943951</v>
+      <c r="B43" s="10">
+        <v>1</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
-        <v>3.3460736666752489</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1.7102883523661641</v>
-      </c>
-      <c r="D44" s="2">
-        <v>2.3460089860763209</v>
+      <c r="B44" s="10">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
-        <v>1.3994400213395559</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1.444498324828819</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2.2624815554503361</v>
+      <c r="B45" s="10">
+        <v>1</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>1.6427061960964471</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1.792879732815218</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1.217963548234468</v>
+      <c r="B46" s="10">
+        <v>1</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
-        <v>18.38133476986204</v>
-      </c>
-      <c r="C47" s="2">
-        <v>36.289622856793883</v>
-      </c>
-      <c r="D47" s="2">
-        <v>105.0582390209775</v>
+      <c r="B47" s="10">
+        <v>1</v>
+      </c>
+      <c r="C47" s="10">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
-        <v>1.5002787181845649</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1.1960747281847279</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1.164829003528234</v>
+      <c r="B48" s="10">
+        <v>1</v>
+      </c>
+      <c r="C48" s="10">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
-        <v>0.4996566896552867</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.66796359542470385</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.67295603540424143</v>
+      <c r="B49" s="10">
+        <v>0</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
-        <v>0.40873695050085962</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.2487989343175977</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.53120748864689338</v>
+      <c r="B50" s="10">
+        <v>0</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
-        <v>1.9283920678324999</v>
-      </c>
-      <c r="C51" s="2">
-        <v>3.542967689295113</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.94332459200337127</v>
+      <c r="B51" s="10">
+        <v>1</v>
+      </c>
+      <c r="C51" s="10">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
-        <v>0.74343150126636981</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1.0752939356920539</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1.752360859505312</v>
+      <c r="B52" s="10">
+        <v>0</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
-        <v>1.021091947521678</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1.1252867180815109</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1.015133273881472</v>
+      <c r="B53" s="10">
+        <v>1</v>
+      </c>
+      <c r="C53" s="10">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
-        <v>0.72240548974692165</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0.61124197255034807</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0.92872640671807838</v>
+      <c r="B54" s="10">
+        <v>0</v>
+      </c>
+      <c r="C54" s="10">
+        <v>0</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
-        <v>1.1753184381645221</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2.0477362229364622</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2.11597626062794</v>
+      <c r="B55" s="10">
+        <v>1</v>
+      </c>
+      <c r="C55" s="10">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
-        <v>1.1437762262228051</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1.3079082479978099</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1.3121161828090799</v>
+      <c r="B56" s="10">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
-        <v>1.0399863446265769</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1.037633058287893</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1.366600077805467</v>
+      <c r="B57" s="10">
+        <v>1</v>
+      </c>
+      <c r="C57" s="10">
+        <v>1</v>
+      </c>
+      <c r="D57" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
-        <v>1.021813057813088</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1.487774100564464</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1.3503432852215129</v>
+      <c r="B58" s="10">
+        <v>1</v>
+      </c>
+      <c r="C58" s="10">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
-        <v>1.249783061231053</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1.46338224850374</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1.139142139231939</v>
+      <c r="B59" s="10">
+        <v>1</v>
+      </c>
+      <c r="C59" s="10">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
-        <v>1.7191243642767899</v>
-      </c>
-      <c r="C60" s="2">
-        <v>6.7343065020018908</v>
-      </c>
-      <c r="D60" s="2">
-        <v>3.5533257093973591</v>
+      <c r="B60" s="10">
+        <v>1</v>
+      </c>
+      <c r="C60" s="10">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
-        <v>2.2145896893250372</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5.2079262580091843</v>
-      </c>
-      <c r="D61" s="2">
-        <v>3.3295404249429681</v>
+      <c r="B61" s="10">
+        <v>1</v>
+      </c>
+      <c r="C61" s="10">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
-        <v>3.401743952656016</v>
-      </c>
-      <c r="C62" s="2">
-        <v>3.859711646204405</v>
-      </c>
-      <c r="D62" s="2">
-        <v>4.260780485500681</v>
+      <c r="B62" s="10">
+        <v>1</v>
+      </c>
+      <c r="C62" s="10">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
-        <v>2.4700754296766578</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1.335278548229101</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1.6998148831949389</v>
+      <c r="B63" s="10">
+        <v>1</v>
+      </c>
+      <c r="C63" s="10">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
-        <v>1.368130909428249</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1.652703664405476</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1.277773884908378</v>
+      <c r="B64" s="10">
+        <v>1</v>
+      </c>
+      <c r="C64" s="10">
+        <v>1</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
-        <v>1.1936089015264939</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1.3964490338749549</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1.5070713933739219</v>
+      <c r="B65" s="10">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10">
+        <v>1</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
-        <v>0.9092262709835468</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0.95531107527809356</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1.0332783951291169</v>
+      <c r="B66" s="10">
+        <v>0</v>
+      </c>
+      <c r="C66" s="10">
+        <v>0</v>
+      </c>
+      <c r="D66" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
-        <v>1.513765788043663</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1.385046824822433</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1.260595836543946</v>
+      <c r="B67" s="10">
+        <v>1</v>
+      </c>
+      <c r="C67" s="10">
+        <v>1</v>
+      </c>
+      <c r="D67" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
-        <v>0.91188864240060818</v>
-      </c>
-      <c r="C68" s="2">
-        <v>0.92850351842275636</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0.96864428521550339</v>
+      <c r="B68" s="10">
+        <v>0</v>
+      </c>
+      <c r="C68" s="10">
+        <v>0</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
-        <v>0.92502494570839466</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1.0480074628767959</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0.98306640396312461</v>
+      <c r="B69" s="10">
+        <v>0</v>
+      </c>
+      <c r="C69" s="10">
+        <v>1</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
-        <v>1.9217254297018209</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1.6656870919969899</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1.918286137606191</v>
+      <c r="B70" s="10">
+        <v>1</v>
+      </c>
+      <c r="C70" s="10">
+        <v>1</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
-        <v>1.233703706491253</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1.0340945838477229</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1.236005753638596</v>
+      <c r="B71" s="10">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10">
+        <v>1</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
-        <v>2.7444329080726559</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1.447943718091449</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1.8798824835219821</v>
+      <c r="B72" s="10">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10">
+        <v>1</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
-        <v>1.53307185423718</v>
-      </c>
-      <c r="C73" s="2">
-        <v>2.1672247108663512</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1.410331434611382</v>
+      <c r="B73" s="10">
+        <v>1</v>
+      </c>
+      <c r="C73" s="10">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
-        <v>0.96309221884292806</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1.0162228989446429</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1.197022172034232</v>
+      <c r="B74" s="10">
+        <v>0</v>
+      </c>
+      <c r="C74" s="10">
+        <v>1</v>
+      </c>
+      <c r="D74" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
-        <v>1.09752809473049</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1.332570098884061</v>
-      </c>
-      <c r="D75" s="2">
-        <v>1.2281132742908669</v>
+      <c r="B75" s="10">
+        <v>1</v>
+      </c>
+      <c r="C75" s="10">
+        <v>1</v>
+      </c>
+      <c r="D75" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
-        <v>1.303845831329459</v>
-      </c>
-      <c r="C76" s="2">
-        <v>1.4053508837032189</v>
-      </c>
-      <c r="D76" s="2">
-        <v>1.424184856828371</v>
+      <c r="B76" s="10">
+        <v>1</v>
+      </c>
+      <c r="C76" s="10">
+        <v>1</v>
+      </c>
+      <c r="D76" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
-        <v>1.4485325528128199</v>
-      </c>
-      <c r="C77" s="2">
-        <v>1.3958061113093381</v>
-      </c>
-      <c r="D77" s="2">
-        <v>1.0886101234646901</v>
+      <c r="B77" s="10">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10">
+        <v>1</v>
+      </c>
+      <c r="D77" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
-        <v>1.1580494195002691</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1.519205282305095</v>
-      </c>
-      <c r="D78" s="2">
-        <v>1.4401279322411711</v>
+      <c r="B78" s="10">
+        <v>1</v>
+      </c>
+      <c r="C78" s="10">
+        <v>1</v>
+      </c>
+      <c r="D78" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19415,7 +19423,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19424,16 +19432,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>92</v>
       </c>
     </row>
@@ -19441,1078 +19449,1078 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>4.2550057248835111</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6.950464672664606</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3.3957397363336699</v>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.87921381734729431</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.58625509871376558</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.75006403856361292</v>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>3.7205866777899539</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.78508281640560262</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.8350950196576019</v>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.75156981657610522</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.1406804247922431</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.81457111235144009</v>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>2.7702838487488091</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4.1301856210924797</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.953342221870638</v>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.37320214626453208</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.54365017610107202</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.45505208734963698</v>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>2.108942705125048</v>
-      </c>
-      <c r="C8" s="2">
-        <v>17.068637689965289</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.8160989402626408</v>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>1.1182312108515791</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.67541190753145031</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.92753680818116291</v>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.81697593895175924</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.85395954167677801</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.379668709063878</v>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.31099810987572551</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.035469814035429</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.30714114217182781</v>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>1.6639179854219099</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.920567366390441</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3.3477318283611028</v>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.16846681979746489</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.28010935168408202</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.38367309814503409</v>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>1.2652185537001679</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.50901360209082147</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.46905941557090752</v>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.91062950793671182</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.7251097739026799</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.2729556320572819</v>
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>1.101609707179261</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3.0999705344606441</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.92391887541526962</v>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>2.0060478003199571</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.7656167316291329</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2.942194886109359</v>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>2.9217513778394881</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.8033988108429739</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2.1171854473599661</v>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>1.0782072636004729</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.67287898252205991</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.29574590193605271</v>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.21286413682093849</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.31334097075078582</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.3436859843225365</v>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>2.554632411190668</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.8073005328627281</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4.3430824435870292</v>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>1.0350184238277711</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.80907102328031844</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.64850058082449369</v>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.73501902717320733</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.842291362351457</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.87331811628676914</v>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
-        <v>4.7848477327332191</v>
-      </c>
-      <c r="C24" s="2">
-        <v>15.23138799697751</v>
-      </c>
-      <c r="D24" s="2">
-        <v>5.6260912937386127</v>
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>2.1582407649569668</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1.4367019758889159</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.5794109743973399</v>
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <v>1.098360176472551</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.81564110680266821</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.98846888039397118</v>
+      <c r="B26" s="13">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>1.928809140657705</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1.4081148784237181</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1.2875321027941899</v>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>1.9688458593381351</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.214539650330964</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.3612670632507851</v>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <v>0.78812678306545592</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1.3024626645749351</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1.233401284158216</v>
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
-        <v>0.2978247730393706</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.36364357854243862</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.2926677204130721</v>
+      <c r="B30" s="13">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
-        <v>1.8231693714398789</v>
-      </c>
-      <c r="C31" s="2">
-        <v>3.620505174958371</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1.8428020067760871</v>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
-        <v>1.122043992195598</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1.3811003993646529</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.178651932158906</v>
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
-        <v>0.94389608309049822</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1.2669214972919709</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1.607994575174156</v>
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
-        <v>1.4192445042474491</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.72500094151064909</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1.6959079877131169</v>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
-        <v>1.0680413708566781</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.52451880422047026</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.35667579876301231</v>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
-        <v>0.97329585836555277</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1.0433242386492629</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.97012323464434413</v>
+      <c r="B36" s="13">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>2.8223549481602039</v>
-      </c>
-      <c r="C37" s="2">
-        <v>6.8872458196733328</v>
-      </c>
-      <c r="D37" s="2">
-        <v>15.83415700463936</v>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13">
+        <v>1</v>
+      </c>
+      <c r="D37" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
-        <v>0.72551223248727148</v>
-      </c>
-      <c r="C38" s="2">
-        <v>3.9603282465562679</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2.5952917879822381</v>
+      <c r="B38" s="13">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
-        <v>1.035387739962865</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1.3204907395270269</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1.646479042884323</v>
+      <c r="B39" s="13">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
-        <v>0.67884938099905601</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1.429603140956923</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.53569959044238269</v>
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1</v>
+      </c>
+      <c r="D40" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
-        <v>1.2034333874659671</v>
-      </c>
-      <c r="C41" s="2">
-        <v>3.0170825807967572</v>
-      </c>
-      <c r="D41" s="2">
-        <v>2.337028449893265</v>
+      <c r="B41" s="13">
+        <v>1</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
-        <v>0.71615164428903255</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.62087416717318922</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.84927469834480585</v>
+      <c r="B42" s="13">
+        <v>0</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
-        <v>6.6396385271179854</v>
-      </c>
-      <c r="C43" s="2">
-        <v>2.0956130158192949</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1.818072075335057</v>
+      <c r="B43" s="13">
+        <v>1</v>
+      </c>
+      <c r="C43" s="13">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
-        <v>0.92200653535275445</v>
-      </c>
-      <c r="C44" s="2">
-        <v>2.4297165371139928</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.77879287638826178</v>
+      <c r="B44" s="13">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1</v>
+      </c>
+      <c r="D44" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
-        <v>0.8712059995234549</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.76441637880897051</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1.0966088667857921</v>
+      <c r="B45" s="13">
+        <v>0</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>0.49309203623535369</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.53297756377115169</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1.073993829672464</v>
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
-        <v>2.0244035322295679</v>
-      </c>
-      <c r="C47" s="2">
-        <v>15.505840964083809</v>
-      </c>
-      <c r="D47" s="2">
-        <v>3.167010502020553</v>
+      <c r="B47" s="13">
+        <v>1</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1</v>
+      </c>
+      <c r="D47" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
-        <v>1.1784512290494391</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1.031747492055787</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.9274501313077419</v>
+      <c r="B48" s="13">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
-        <v>0.80006812435290564</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1.3343118098072819</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1.3924534020173489</v>
+      <c r="B49" s="13">
+        <v>0</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
-        <v>0.28213077842145617</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.28460193364603792</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.18783760275991629</v>
+      <c r="B50" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
-        <v>1.04545845783548</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1.8060516410493079</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1.14436515915739</v>
+      <c r="B51" s="13">
+        <v>1</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
-        <v>0.69984110388475018</v>
-      </c>
-      <c r="C52" s="2">
-        <v>2.2868379695515619</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1.672662861260817</v>
+      <c r="B52" s="13">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
-        <v>0.69478615779142583</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0.71652921250844692</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0.6965386856720418</v>
+      <c r="B53" s="13">
+        <v>0</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
-        <v>0.32793758826250857</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0.43295840547547892</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0.4481138035186587</v>
+      <c r="B54" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13">
+        <v>0</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
-        <v>3.5169351846430539</v>
-      </c>
-      <c r="C55" s="2">
-        <v>4.6563362310076721</v>
-      </c>
-      <c r="D55" s="2">
-        <v>3.057617669636048</v>
+      <c r="B55" s="13">
+        <v>1</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
-        <v>1.070591716581055</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1.236925375693338</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.89314921088702703</v>
+      <c r="B56" s="13">
+        <v>1</v>
+      </c>
+      <c r="C56" s="13">
+        <v>1</v>
+      </c>
+      <c r="D56" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
-        <v>1.122527130878378</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1.172083967016351</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1.1838872113545471</v>
+      <c r="B57" s="13">
+        <v>1</v>
+      </c>
+      <c r="C57" s="13">
+        <v>1</v>
+      </c>
+      <c r="D57" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
-        <v>0.65230312497371479</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1.2154111890827219</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0.79852051309940375</v>
+      <c r="B58" s="13">
+        <v>0</v>
+      </c>
+      <c r="C58" s="13">
+        <v>1</v>
+      </c>
+      <c r="D58" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
-        <v>0.74194041599602445</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0.59152684883180551</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0.74584665320837695</v>
+      <c r="B59" s="13">
+        <v>0</v>
+      </c>
+      <c r="C59" s="13">
+        <v>0</v>
+      </c>
+      <c r="D59" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
-        <v>1.8509020532791089</v>
-      </c>
-      <c r="C60" s="2">
-        <v>7.352456000633051</v>
-      </c>
-      <c r="D60" s="2">
-        <v>2.5007469644109732</v>
+      <c r="B60" s="13">
+        <v>1</v>
+      </c>
+      <c r="C60" s="13">
+        <v>1</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
-        <v>2.1202324164452921</v>
-      </c>
-      <c r="C61" s="2">
-        <v>4.9288538928730992</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1.8938449775360571</v>
+      <c r="B61" s="13">
+        <v>1</v>
+      </c>
+      <c r="C61" s="13">
+        <v>1</v>
+      </c>
+      <c r="D61" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
-        <v>10.64914682150715</v>
-      </c>
-      <c r="C62" s="2">
-        <v>2.729748209467088</v>
-      </c>
-      <c r="D62" s="2">
-        <v>5.0930719160825992</v>
+      <c r="B62" s="13">
+        <v>1</v>
+      </c>
+      <c r="C62" s="13">
+        <v>1</v>
+      </c>
+      <c r="D62" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
-        <v>0.44224579082036392</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0.55348192398524931</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0.26518103737401338</v>
+      <c r="B63" s="13">
+        <v>0</v>
+      </c>
+      <c r="C63" s="13">
+        <v>0</v>
+      </c>
+      <c r="D63" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
-        <v>1.174211000608574</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0.94558377902517321</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1.1659703727423469</v>
+      <c r="B64" s="13">
+        <v>1</v>
+      </c>
+      <c r="C64" s="13">
+        <v>0</v>
+      </c>
+      <c r="D64" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
-        <v>1.199332072930883</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1.738607571466152</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1.131830878052501</v>
+      <c r="B65" s="13">
+        <v>1</v>
+      </c>
+      <c r="C65" s="13">
+        <v>1</v>
+      </c>
+      <c r="D65" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
-        <v>0.86705457954117238</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0.9346247551190916</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0.74064370723953632</v>
+      <c r="B66" s="13">
+        <v>0</v>
+      </c>
+      <c r="C66" s="13">
+        <v>0</v>
+      </c>
+      <c r="D66" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
-        <v>0.96442696955500362</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0.97619796227170608</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0.99823942819160838</v>
+      <c r="B67" s="13">
+        <v>0</v>
+      </c>
+      <c r="C67" s="13">
+        <v>0</v>
+      </c>
+      <c r="D67" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
-        <v>0.57942488920512758</v>
-      </c>
-      <c r="C68" s="2">
-        <v>0.73136858410418493</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0.77213131655056799</v>
+      <c r="B68" s="13">
+        <v>0</v>
+      </c>
+      <c r="C68" s="13">
+        <v>0</v>
+      </c>
+      <c r="D68" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
-        <v>0.28164160970990032</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0.21553346909167961</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0.35942032766670468</v>
+      <c r="B69" s="13">
+        <v>0</v>
+      </c>
+      <c r="C69" s="13">
+        <v>0</v>
+      </c>
+      <c r="D69" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
-        <v>0.55207673151703329</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0.51634335486992233</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0.56742028962310309</v>
+      <c r="B70" s="13">
+        <v>0</v>
+      </c>
+      <c r="C70" s="13">
+        <v>0</v>
+      </c>
+      <c r="D70" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
-        <v>0.78268148488677891</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0.86722397716099175</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0.63082410467953387</v>
+      <c r="B71" s="13">
+        <v>0</v>
+      </c>
+      <c r="C71" s="13">
+        <v>0</v>
+      </c>
+      <c r="D71" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
-        <v>1.5166825709794249</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1.5557323944762871</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1.408924953689235</v>
+      <c r="B72" s="13">
+        <v>1</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1</v>
+      </c>
+      <c r="D72" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
-        <v>2.2235369580948121</v>
-      </c>
-      <c r="C73" s="2">
-        <v>1.8521274127032259</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1.3526944183017</v>
+      <c r="B73" s="13">
+        <v>1</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1</v>
+      </c>
+      <c r="D73" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
-        <v>0.57430336643750557</v>
-      </c>
-      <c r="C74" s="2">
-        <v>0.7182132002982744</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0.55025400935294666</v>
+      <c r="B74" s="13">
+        <v>0</v>
+      </c>
+      <c r="C74" s="13">
+        <v>0</v>
+      </c>
+      <c r="D74" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
-        <v>0.98455192365704314</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1.228820679646788</v>
-      </c>
-      <c r="D75" s="2">
-        <v>1.3208338347210991</v>
+      <c r="B75" s="13">
+        <v>0</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1</v>
+      </c>
+      <c r="D75" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
-        <v>0.27863160067350379</v>
-      </c>
-      <c r="C76" s="2">
-        <v>0.80952937716806161</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0.48785384269975779</v>
+      <c r="B76" s="13">
+        <v>0</v>
+      </c>
+      <c r="C76" s="13">
+        <v>0</v>
+      </c>
+      <c r="D76" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
-        <v>0.68870839831659458</v>
-      </c>
-      <c r="C77" s="2">
-        <v>0.62432148359565787</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0.96988567151753591</v>
+      <c r="B77" s="13">
+        <v>0</v>
+      </c>
+      <c r="C77" s="13">
+        <v>0</v>
+      </c>
+      <c r="D77" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
-        <v>1.676051575723938</v>
-      </c>
-      <c r="C78" s="2">
-        <v>3.2705793147654392</v>
-      </c>
-      <c r="D78" s="2">
-        <v>2.562589200855458</v>
+      <c r="B78" s="13">
+        <v>1</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1</v>
+      </c>
+      <c r="D78" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
